--- a/api-ekyc/Automate_test_QR_code_jouney.xlsx
+++ b/api-ekyc/Automate_test_QR_code_jouney.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -1576,8 +1576,8 @@
     <col width="25.6640625" customWidth="1" style="26" min="2" max="2"/>
     <col width="76.1640625" customWidth="1" style="27" min="3" max="3"/>
     <col width="64.1640625" bestFit="1" customWidth="1" style="24" min="4" max="4"/>
-    <col width="10.83203125" customWidth="1" style="24" min="5" max="133"/>
-    <col width="10.83203125" customWidth="1" style="24" min="134" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="24" min="5" max="138"/>
+    <col width="10.83203125" customWidth="1" style="24" min="139" max="16384"/>
   </cols>
   <sheetData>
     <row r="2" ht="20" customHeight="1" s="192">
@@ -1694,8 +1694,8 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1832,12 +1832,12 @@
       <c r="F3" s="166" t="n"/>
       <c r="G3" s="166" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H3" s="15" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"consent_internal_version":"CS.20220325.0001","consent_onetrust_version":"27","consent_date":"2022-05-25 12:55:38.083","consent_status":"ACTIVE","transaction_date":"2022-05-25 12:55:19.505"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"consent_internal_version":"CS.20220705.0001","consent_onetrust_version":"30","consent_date":"2022-07-11 21:12:02.695","consent_status":"ACTIVE","transaction_date":"2022-07-11 21:11:27.797"}}</t>
         </is>
       </c>
       <c r="I3" s="46" t="n"/>
@@ -2170,11 +2170,27 @@
           <t>0I8SfCnkwkptBl1Z50x6mYNe0lbdJCRxMApy/0EMeYFwu59LCQxgxs4=</t>
         </is>
       </c>
-      <c r="D11" s="166" t="n"/>
-      <c r="E11" s="166" t="n"/>
-      <c r="F11" s="166" t="n"/>
-      <c r="G11" s="166" t="n"/>
-      <c r="H11" s="15" t="n"/>
+      <c r="D11" s="166" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E11" s="166" t="inlineStr">
+        <is>
+          <t>Customer Temporary Locked</t>
+        </is>
+      </c>
+      <c r="F11" s="166" t="inlineStr"/>
+      <c r="G11" s="166" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H11" s="15" t="inlineStr">
+        <is>
+          <t>{"status":{"code":"2025","message":"Customer Temporary Locked","remark":"","user_code":"E0017","user_message_en":"Your profile has been locked due to reached maximum face recognition attempts.&lt;br/&gt;Please call customer care to unlock. 02-697-5454","user_message_th":"โปรไฟล์ของคุณถูกล็อค เนื่องจากการพยายามเปรียบเทียบใบหน้าถึงขีดจำกัดแล้ว&lt;br/&gt;กรุณาโทรติดต่อฝ่ายดูแลลูกค้าเพื่อปลดล็อค 02-697-5454"},"data":{"consent_internal_version":"CS.20220705.0001","consent_onetrust_version":"30","consent_date":"2022-07-11 21:12:02.695","consent_status":"ACTIVE","transaction_date":"2022-07-11 21:11:27.797"}}</t>
+        </is>
+      </c>
       <c r="I11" s="46" t="n"/>
       <c r="J11" s="72" t="inlineStr">
         <is>
@@ -2270,7 +2286,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2395,14 +2411,14 @@
 กรณี ลูกค้าเคย Gen QR มี 1 journey</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>jzoyaYvHxfMTTtRy9N/8jwBmZHBm3l6IkCmNcawbA8haeGlrOTb8Gpo=</t>
+      <c r="C3" s="46" t="inlineStr">
+        <is>
+          <t>0I8SfCnkwkptBl1Z50x6mYNe0lbdJCRxMApy/0EMeYFwu59LCQxgxs4=</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>[{"qr": "2431526157868979466119681", "qr_status": "active", "qr_expired": "2022-02-08 23:59:59", "journey_code": "JN003"}, {"qr": "2431518381682761626852344", "qr_status": "active", "qr_expired": "2022-02-08 23:59:59", "journey_code": "JN004"}]</t>
+          <t>[{"qr": "2431590698128634730032345", "qr_status": "used", "qr_expired": "2022-07-12 23:59:59", "journey_code": "JN003"}, {"qr": "2431537688873815722731241", "qr_status": "invalid", "qr_expired": "2022-05-04 23:59:59", "journey_code": "JN004"}]</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -2418,7 +2434,7 @@
       <c r="G3" s="9" t="n"/>
       <c r="H3" s="11" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":null,"user_code":null,"user_message_en":null,"user_message_th":null},"data":[{"qr":"2431526157868979466119681","qr_status":"active","qr_expired":"2022-02-08 23:59:59","journey_code":"JN003"},{"qr":"2431518381682761626852344","qr_status":"active","qr_expired":"2022-02-08 23:59:59","journey_code":"JN004"}]}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":[{"qr":"2431590698128634730032345","qr_status":"used","qr_expired":"2022-07-12 23:59:59","journey_code":"JN003"},{"qr":"2431537688873815722731241","qr_status":"invalid","qr_expired":"2022-05-04 23:59:59","journey_code":"JN004"}]}</t>
         </is>
       </c>
       <c r="I3" s="37" t="inlineStr">
@@ -2458,27 +2474,11 @@
           <t>jzoyaYvHxfMTTtRy9N/8jwBmZHBm3l6IkCmNcawbA8haeGlrOTb8Gpo=</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>[{"qr": "2431526157868979466119681", "qr_status": "active", "qr_expired": "2022-02-08 23:59:59", "journey_code": "JN003"}, {"qr": "2431518381682761626852344", "qr_status": "active", "qr_expired": "2022-02-08 23:59:59", "journey_code": "JN004"}]</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="n"/>
       <c r="G4" s="9" t="n"/>
-      <c r="H4" s="11" t="inlineStr">
-        <is>
-          <t>{"status":{"code":"0","message":"Success","remark":null,"user_code":null,"user_message_en":null,"user_message_th":null},"data":[{"qr":"2431526157868979466119681","qr_status":"active","qr_expired":"2022-02-08 23:59:59","journey_code":"JN003"},{"qr":"2431518381682761626852344","qr_status":"active","qr_expired":"2022-02-08 23:59:59","journey_code":"JN004"}]}</t>
-        </is>
-      </c>
+      <c r="H4" s="11" t="n"/>
       <c r="I4" s="37" t="inlineStr">
         <is>
           <t>0</t>
@@ -2516,31 +2516,11 @@
           <t>QcluDHGvzmgSiYJFf3INetP9GQcQN2erbsAkWgYq7JEm3FWtC95er6g=</t>
         </is>
       </c>
-      <c r="D5" s="87" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E5" s="19" t="inlineStr">
-        <is>
-          <t>1002</t>
-        </is>
-      </c>
-      <c r="F5" s="19" t="inlineStr">
-        <is>
-          <t>Data Not Found</t>
-        </is>
-      </c>
-      <c r="G5" s="19" t="inlineStr">
-        <is>
-          <t>Not existing qr info.</t>
-        </is>
-      </c>
-      <c r="H5" s="20" t="inlineStr">
-        <is>
-          <t>{"status":{"code":"1002","message":"Data Not Found","remark":"Not existing qr info.","user_code":null,"user_message_en":null,"user_message_th":null},"data":null}</t>
-        </is>
-      </c>
+      <c r="D5" s="87" t="n"/>
+      <c r="E5" s="19" t="n"/>
+      <c r="F5" s="19" t="n"/>
+      <c r="G5" s="19" t="n"/>
+      <c r="H5" s="20" t="n"/>
       <c r="I5" s="38" t="inlineStr">
         <is>
           <t>1002</t>
@@ -2581,25 +2561,11 @@
           <t>u8z/EU3PFoNvJgPju4JGc0XjTF/WvIfgI6SiPI3brZbk8jjG9HrxHNY=</t>
         </is>
       </c>
-      <c r="D6" s="46" t="inlineStr">
-        <is>
-          <t>[{"qr": "2431526514000962159096441", "qr_status": "expired", "qr_expired": "2022-02-09 23:59:59", "journey_code": "JN003"}]</t>
-        </is>
-      </c>
-      <c r="E6" s="164" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="164" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
+      <c r="D6" s="46" t="n"/>
+      <c r="E6" s="164" t="n"/>
+      <c r="F6" s="164" t="n"/>
       <c r="G6" s="164" t="n"/>
-      <c r="H6" s="165" t="inlineStr">
-        <is>
-          <t>{"status":{"code":"0","message":"Success","remark":null,"user_code":null,"user_message_en":null,"user_message_th":null},"data":[{"qr":"2431526514000962159096441","qr_status":"expired","qr_expired":"2022-02-09 23:59:59","journey_code":"JN003"}]}</t>
-        </is>
-      </c>
+      <c r="H6" s="165" t="n"/>
       <c r="I6" s="49" t="inlineStr">
         <is>
           <t>0</t>
@@ -2665,8 +2631,8 @@
   </sheetPr>
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2849,7 +2815,7 @@
       </c>
       <c r="C3" s="99" t="inlineStr">
         <is>
-          <t>rh/UPnzSIS6629LdtoUbJIK426lgdlU/0USkFa8G/boC4LTM6yNmTc0=</t>
+          <t>9y4acQw32KRV1nnz2VfzoEGd11UDSrdqW6LqxhnJywEi0lR3Rda0Z6M=</t>
         </is>
       </c>
       <c r="D3" s="167" t="n"/>
@@ -2864,8 +2830,10 @@
       <c r="M3" s="167" t="n"/>
       <c r="N3" s="167" t="n"/>
       <c r="O3" s="167" t="n"/>
-      <c r="P3" s="166" t="n">
-        <v>1002</v>
+      <c r="P3" s="166" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
       </c>
       <c r="Q3" s="166" t="inlineStr">
         <is>
@@ -2877,7 +2845,11 @@
           <t>Transaction not found</t>
         </is>
       </c>
-      <c r="S3" s="15" t="n"/>
+      <c r="S3" s="15" t="inlineStr">
+        <is>
+          <t>{"status":{"code":"1002","message":"Data Not Found","remark":"Transaction not found","user_code":"E1003","user_message_en":"Data Not Found","user_message_th":"ไม่พบข้อมูล"},"data":null}</t>
+        </is>
+      </c>
       <c r="T3" s="100" t="n">
         <v>1002</v>
       </c>
@@ -2917,83 +2889,27 @@
 กรณี get data ลูกค้าทำ ekyc และมี Status เป็น Unsuccess</t>
         </is>
       </c>
-      <c r="C4" s="165" t="inlineStr">
-        <is>
-          <t>jzoyaYvHxfMTTtRy9N/8jwBmZHBm3l6IkCmNcawbA8haeGlrOTb8Gpo=</t>
-        </is>
-      </c>
-      <c r="D4" s="167" t="inlineStr">
-        <is>
-          <t>EU2022020200086</t>
-        </is>
-      </c>
-      <c r="E4" s="167" t="inlineStr">
-        <is>
-          <t>unsuccess</t>
-        </is>
-      </c>
-      <c r="F4" s="167" t="inlineStr">
-        <is>
-          <t>FACE_REC</t>
-        </is>
-      </c>
-      <c r="G4" s="167" t="inlineStr">
-        <is>
-          <t>TCRB-TABLET</t>
-        </is>
-      </c>
-      <c r="H4" s="167" t="inlineStr">
-        <is>
-          <t>TCRB</t>
-        </is>
-      </c>
-      <c r="I4" s="167" t="inlineStr">
-        <is>
-          <t>EKYC Uplift</t>
-        </is>
-      </c>
+      <c r="C4" s="46" t="inlineStr">
+        <is>
+          <t>0I8SfCnkwkptBl1Z50x6mYNe0lbdJCRxMApy/0EMeYFwu59LCQxgxs4=</t>
+        </is>
+      </c>
+      <c r="D4" s="167" t="n"/>
+      <c r="E4" s="167" t="n"/>
+      <c r="F4" s="167" t="n"/>
+      <c r="G4" s="167" t="n"/>
+      <c r="H4" s="167" t="n"/>
+      <c r="I4" s="167" t="n"/>
       <c r="J4" s="167" t="n"/>
-      <c r="K4" s="167" t="inlineStr">
-        <is>
-          <t>9999-12-31</t>
-        </is>
-      </c>
-      <c r="L4" s="167" t="inlineStr">
-        <is>
-          <t>2022-02-02 20:17:25.756461</t>
-        </is>
-      </c>
-      <c r="M4" s="167" t="inlineStr">
-        <is>
-          <t>QAPostMan</t>
-        </is>
-      </c>
-      <c r="N4" s="167" t="inlineStr">
-        <is>
-          <t>2022-02-03 01:00:53.860484</t>
-        </is>
-      </c>
-      <c r="O4" s="167" t="inlineStr">
-        <is>
-          <t>Batch TXN</t>
-        </is>
-      </c>
-      <c r="P4" s="166" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" s="166" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
+      <c r="K4" s="167" t="n"/>
+      <c r="L4" s="167" t="n"/>
+      <c r="M4" s="167" t="n"/>
+      <c r="N4" s="167" t="n"/>
+      <c r="O4" s="167" t="n"/>
+      <c r="P4" s="166" t="n"/>
+      <c r="Q4" s="166" t="n"/>
       <c r="R4" s="166" t="n"/>
-      <c r="S4" s="15" t="inlineStr">
-        <is>
-          <t>{"status":{"code":"0","message":"Success","remark":null,"user_code":null,"user_message_th":null,"user_message_en":null},"data":{"kyc_transaction":"EU2022020200086","transaction_status":"unsuccess","state":"FACE_REC","channel":"TCRB-TABLET","entity":"TCRB","request_type":"EKYC Uplift","ial":"","kyc_expired_date":"9999-12-31","create_date":"2022-02-02 20:17:25.756461","create_by":"QAPostMan","update_date":"2022-02-03 01:00:53.860484","update_by":"Batch TXN"}}</t>
-        </is>
-      </c>
+      <c r="S4" s="15" t="n"/>
       <c r="T4" s="100" t="inlineStr">
         <is>
           <t>0</t>
@@ -3030,23 +2946,87 @@
 กรณี get data ลูกค้าทำ ekyc และมี Status เป็น Success</t>
         </is>
       </c>
-      <c r="C5" s="165" t="n"/>
-      <c r="D5" s="167" t="n"/>
-      <c r="E5" s="167" t="n"/>
-      <c r="F5" s="167" t="n"/>
-      <c r="G5" s="167" t="n"/>
-      <c r="H5" s="167" t="n"/>
-      <c r="I5" s="167" t="n"/>
-      <c r="J5" s="167" t="n"/>
-      <c r="K5" s="167" t="n"/>
-      <c r="L5" s="167" t="n"/>
-      <c r="M5" s="167" t="n"/>
-      <c r="N5" s="167" t="n"/>
-      <c r="O5" s="167" t="n"/>
-      <c r="P5" s="166" t="n"/>
-      <c r="Q5" s="166" t="n"/>
+      <c r="C5" s="46" t="inlineStr">
+        <is>
+          <t>0I8SfCnkwkptBl1Z50x6mYNe0lbdJCRxMApy/0EMeYFwu59LCQxgxs4=</t>
+        </is>
+      </c>
+      <c r="D5" s="167" t="inlineStr">
+        <is>
+          <t>EQ2022071100004</t>
+        </is>
+      </c>
+      <c r="E5" s="167" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="F5" s="167" t="inlineStr">
+        <is>
+          <t>FACE_REC</t>
+        </is>
+      </c>
+      <c r="G5" s="167" t="inlineStr">
+        <is>
+          <t>TCRB-TABLET</t>
+        </is>
+      </c>
+      <c r="H5" s="167" t="inlineStr">
+        <is>
+          <t>TCRB</t>
+        </is>
+      </c>
+      <c r="I5" s="167" t="inlineStr">
+        <is>
+          <t>EKYC QR Signup</t>
+        </is>
+      </c>
+      <c r="J5" s="167" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="K5" s="167" t="inlineStr">
+        <is>
+          <t>2027-07-10</t>
+        </is>
+      </c>
+      <c r="L5" s="167" t="inlineStr">
+        <is>
+          <t>2022-07-11 21:11:27.797646</t>
+        </is>
+      </c>
+      <c r="M5" s="167" t="inlineStr">
+        <is>
+          <t>automate</t>
+        </is>
+      </c>
+      <c r="N5" s="167" t="inlineStr">
+        <is>
+          <t>2022-07-11 21:12:38.5092</t>
+        </is>
+      </c>
+      <c r="O5" s="167" t="inlineStr">
+        <is>
+          <t>automate</t>
+        </is>
+      </c>
+      <c r="P5" s="166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" s="166" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
       <c r="R5" s="166" t="n"/>
-      <c r="S5" s="15" t="n"/>
+      <c r="S5" s="15" t="inlineStr">
+        <is>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"transaction_status":"success","request_type":"EKYC QR Signup","channel":"TCRB-TABLET","kyc_expired_date":"2027-07-10","update_date":"2022-07-11 21:12:38.5092","create_by":"automate","ial":"2.3","kyc_transaction":"EQ2022071100004","state":"FACE_REC","create_date":"2022-07-11 21:11:27.797646","update_by":"automate","entity":"TCRB"}}</t>
+        </is>
+      </c>
       <c r="T5" s="100" t="inlineStr">
         <is>
           <t>0</t>
@@ -3141,78 +3121,22 @@
           <t>jzoyaYvHxfMTTtRy9N/8jwBmZHBm3l6IkCmNcawbA8haeGlrOTb8Gpo=</t>
         </is>
       </c>
-      <c r="D7" s="167" t="inlineStr">
-        <is>
-          <t>EU2022021500012</t>
-        </is>
-      </c>
-      <c r="E7" s="167" t="inlineStr">
-        <is>
-          <t>in_progress</t>
-        </is>
-      </c>
-      <c r="F7" s="167" t="inlineStr">
-        <is>
-          <t>LIVENESS</t>
-        </is>
-      </c>
-      <c r="G7" s="167" t="inlineStr">
-        <is>
-          <t>TCRB-TABLET</t>
-        </is>
-      </c>
-      <c r="H7" s="167" t="inlineStr">
-        <is>
-          <t>TCRB</t>
-        </is>
-      </c>
-      <c r="I7" s="167" t="inlineStr">
-        <is>
-          <t>EKYC Uplift</t>
-        </is>
-      </c>
+      <c r="D7" s="167" t="n"/>
+      <c r="E7" s="167" t="n"/>
+      <c r="F7" s="167" t="n"/>
+      <c r="G7" s="167" t="n"/>
+      <c r="H7" s="167" t="n"/>
+      <c r="I7" s="167" t="n"/>
       <c r="J7" s="167" t="n"/>
-      <c r="K7" s="167" t="inlineStr">
-        <is>
-          <t>9999-12-31</t>
-        </is>
-      </c>
-      <c r="L7" s="167" t="inlineStr">
-        <is>
-          <t>2022-02-15 10:14:21.413278</t>
-        </is>
-      </c>
-      <c r="M7" s="167" t="inlineStr">
-        <is>
-          <t>QAPostMan</t>
-        </is>
-      </c>
-      <c r="N7" s="167" t="inlineStr">
-        <is>
-          <t>2022-02-15 10:15:30.252192</t>
-        </is>
-      </c>
-      <c r="O7" s="167" t="inlineStr">
-        <is>
-          <t>QAPostMan</t>
-        </is>
-      </c>
-      <c r="P7" s="167" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" s="167" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
+      <c r="K7" s="167" t="n"/>
+      <c r="L7" s="167" t="n"/>
+      <c r="M7" s="167" t="n"/>
+      <c r="N7" s="167" t="n"/>
+      <c r="O7" s="167" t="n"/>
+      <c r="P7" s="167" t="n"/>
+      <c r="Q7" s="167" t="n"/>
       <c r="R7" s="167" t="n"/>
-      <c r="S7" s="88" t="inlineStr">
-        <is>
-          <t>{"status":{"code":"0","message":"Success","remark":null,"user_code":null,"user_message_en":null,"user_message_th":null},"data":{"kyc_transaction":"EU2022021500012","transaction_status":"in_progress","state":"LIVENESS","channel":"TCRB-TABLET","entity":"TCRB","request_type":"EKYC Uplift","ial":"","kyc_expired_date":"9999-12-31","create_date":"2022-02-15 10:14:21.413278","create_by":"QAPostMan","update_date":"2022-02-15 10:15:30.252192","update_by":"QAPostMan"}}</t>
-        </is>
-      </c>
+      <c r="S7" s="88" t="n"/>
       <c r="T7" s="100" t="inlineStr">
         <is>
           <t>0</t>
@@ -3291,8 +3215,8 @@
     <col width="14.6640625" customWidth="1" style="194" min="17" max="17"/>
     <col width="18.33203125" customWidth="1" style="192" min="18" max="18"/>
     <col width="25" customWidth="1" style="18" min="19" max="19"/>
-    <col width="8.83203125" customWidth="1" style="194" min="20" max="163"/>
-    <col width="8.83203125" customWidth="1" style="194" min="164" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="194" min="20" max="168"/>
+    <col width="8.83203125" customWidth="1" style="194" min="169" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="192">
@@ -4289,8 +4213,8 @@
     <col width="24.6640625" customWidth="1" style="194" min="16" max="16"/>
     <col width="14.6640625" customWidth="1" style="194" min="17" max="17"/>
     <col width="21.83203125" customWidth="1" style="192" min="18" max="18"/>
-    <col width="8.83203125" customWidth="1" style="200" min="19" max="142"/>
-    <col width="8.83203125" customWidth="1" style="200" min="143" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="200" min="19" max="147"/>
+    <col width="8.83203125" customWidth="1" style="200" min="148" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4451,7 +4375,7 @@
           <t>Expire  QR</t>
         </is>
       </c>
-      <c r="I3" s="164" t="inlineStr"/>
+      <c r="I3" s="164" t="n"/>
       <c r="J3" s="164" t="inlineStr">
         <is>
           <t>คิวอาร์โค้ดหมดอายุ</t>
@@ -4517,7 +4441,7 @@
           <t>Incorrect QR</t>
         </is>
       </c>
-      <c r="I4" s="164" t="inlineStr"/>
+      <c r="I4" s="164" t="n"/>
       <c r="J4" s="165" t="inlineStr">
         <is>
           <t>คิวอาร์โค้ดไม่ใช่คิวอาร์โคัดของธนาคาร</t>
@@ -4883,7 +4807,7 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -5021,7 +4945,7 @@
           <t>QR match fail</t>
         </is>
       </c>
-      <c r="G3" s="60" t="inlineStr"/>
+      <c r="G3" s="60" t="n"/>
       <c r="H3" s="75" t="inlineStr">
         <is>
           <t>E0012</t>
@@ -5084,7 +5008,7 @@
           <t>Success</t>
         </is>
       </c>
-      <c r="G4" s="77" t="inlineStr"/>
+      <c r="G4" s="77" t="n"/>
       <c r="H4" s="77" t="inlineStr">
         <is>
           <t>S0001</t>
@@ -5193,8 +5117,8 @@
     <col width="24.6640625" customWidth="1" style="194" min="13" max="13"/>
     <col hidden="1" width="14.6640625" customWidth="1" style="194" min="14" max="14"/>
     <col width="21.83203125" customWidth="1" style="192" min="15" max="15"/>
-    <col width="8.83203125" customWidth="1" style="200" min="16" max="139"/>
-    <col width="8.83203125" customWidth="1" style="200" min="140" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="200" min="16" max="144"/>
+    <col width="8.83203125" customWidth="1" style="200" min="145" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5779,7 +5703,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5801,8 +5725,8 @@
     <col hidden="1" width="24.6640625" customWidth="1" style="194" min="18" max="18"/>
     <col hidden="1" width="21.83203125" customWidth="1" style="192" min="19" max="19"/>
     <col width="26.83203125" customWidth="1" style="200" min="20" max="20"/>
-    <col width="8.83203125" customWidth="1" style="200" min="21" max="143"/>
-    <col width="8.83203125" customWidth="1" style="200" min="144" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="200" min="21" max="148"/>
+    <col width="8.83203125" customWidth="1" style="200" min="149" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/api-ekyc/Automate_test_QR_code_jouney.xlsx
+++ b/api-ekyc/Automate_test_QR_code_jouney.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -1576,8 +1576,8 @@
     <col width="25.6640625" customWidth="1" style="26" min="2" max="2"/>
     <col width="76.1640625" customWidth="1" style="27" min="3" max="3"/>
     <col width="64.1640625" bestFit="1" customWidth="1" style="24" min="4" max="4"/>
-    <col width="10.83203125" customWidth="1" style="24" min="5" max="138"/>
-    <col width="10.83203125" customWidth="1" style="24" min="139" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="24" min="5" max="139"/>
+    <col width="10.83203125" customWidth="1" style="24" min="140" max="16384"/>
   </cols>
   <sheetData>
     <row r="2" ht="20" customHeight="1" s="192">
@@ -1694,7 +1694,7 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2180,7 +2180,7 @@
           <t>Customer Temporary Locked</t>
         </is>
       </c>
-      <c r="F11" s="166" t="inlineStr"/>
+      <c r="F11" s="166" t="n"/>
       <c r="G11" s="166" t="inlineStr">
         <is>
           <t>30</t>
@@ -3215,8 +3215,8 @@
     <col width="14.6640625" customWidth="1" style="194" min="17" max="17"/>
     <col width="18.33203125" customWidth="1" style="192" min="18" max="18"/>
     <col width="25" customWidth="1" style="18" min="19" max="19"/>
-    <col width="8.83203125" customWidth="1" style="194" min="20" max="168"/>
-    <col width="8.83203125" customWidth="1" style="194" min="169" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="194" min="20" max="169"/>
+    <col width="8.83203125" customWidth="1" style="194" min="170" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="192">
@@ -4213,8 +4213,8 @@
     <col width="24.6640625" customWidth="1" style="194" min="16" max="16"/>
     <col width="14.6640625" customWidth="1" style="194" min="17" max="17"/>
     <col width="21.83203125" customWidth="1" style="192" min="18" max="18"/>
-    <col width="8.83203125" customWidth="1" style="200" min="19" max="147"/>
-    <col width="8.83203125" customWidth="1" style="200" min="148" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="200" min="19" max="148"/>
+    <col width="8.83203125" customWidth="1" style="200" min="149" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="K3" s="75" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"qr":"2431589866500112609756033","qr_expired":"2022-06-01 23:59:59","qr_status":"active"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"qr":"2431550258335504662949312","qr_expired":"2022-07-26 23:59:59","qr_status":"active"}}</t>
         </is>
       </c>
       <c r="L3" s="90" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="K4" s="89" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"qr":"2431515037287584072740802","qr_expired":"2022-06-01 23:59:59","qr_status":"active"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"qr":"2431517886624066999804523","qr_expired":"2022-07-26 23:59:59","qr_status":"active"}}</t>
         </is>
       </c>
       <c r="L4" s="91" t="inlineStr">
@@ -5117,8 +5117,8 @@
     <col width="24.6640625" customWidth="1" style="194" min="13" max="13"/>
     <col hidden="1" width="14.6640625" customWidth="1" style="194" min="14" max="14"/>
     <col width="21.83203125" customWidth="1" style="192" min="15" max="15"/>
-    <col width="8.83203125" customWidth="1" style="200" min="16" max="144"/>
-    <col width="8.83203125" customWidth="1" style="200" min="145" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="200" min="16" max="145"/>
+    <col width="8.83203125" customWidth="1" style="200" min="146" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="C7" s="116" t="inlineStr">
         <is>
-          <t>2431523385424002525390119</t>
+          <t>2431582812710507949603246</t>
         </is>
       </c>
       <c r="D7" s="136" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="J7" s="165" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":null,"user_code":null,"user_message_en":null,"user_message_th":null},"data":{"qr":"2431523385424002525390119","qr_expired":"2022-05-16 23:59:59","qr_status":"active"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"qr":"2431582812710507949603246","qr_expired":"2022-07-26 23:59:59","qr_status":"active"}}</t>
         </is>
       </c>
       <c r="K7" s="52" t="n">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C8" s="167" t="inlineStr">
         <is>
-          <t>2431534497971998233836339</t>
+          <t>2431511615045716331160951</t>
         </is>
       </c>
       <c r="D8" s="139" t="inlineStr">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="J8" s="88" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":null,"user_code":null,"user_message_en":null,"user_message_th":null},"data":{"qr":"2431534497971998233836339","qr_expired":"2022-05-16 23:59:59","qr_status":"active"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"qr":"2431511615045716331160951","qr_expired":"2022-07-26 23:59:59","qr_status":"active"}}</t>
         </is>
       </c>
       <c r="K8" s="52" t="n">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="C9" s="163" t="inlineStr">
         <is>
-          <t>2431512042573116376008389</t>
+          <t>2431517874957316570159437</t>
         </is>
       </c>
       <c r="D9" s="141" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="J9" s="165" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":null,"user_code":null,"user_message_en":null,"user_message_th":null},"data":{"qr":"2431512042573116376008389","qr_expired":"2022-05-16 23:59:59","qr_status":"active"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"qr":"2431517874957316570159437","qr_expired":"2022-07-26 23:59:59","qr_status":"active"}}</t>
         </is>
       </c>
       <c r="K9" s="52" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="C10" s="163" t="inlineStr">
         <is>
-          <t>2431514929065628947843195</t>
+          <t>2431526259765375784762819</t>
         </is>
       </c>
       <c r="D10" s="141" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="J10" s="165" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":null,"user_code":null,"user_message_en":null,"user_message_th":null},"data":{"qr":"2431514929065628947843195","qr_expired":"2022-05-16 23:59:59","qr_status":"active"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"qr":"2431526259765375784762819","qr_expired":"2022-07-26 23:59:59","qr_status":"active"}}</t>
         </is>
       </c>
       <c r="K10" s="52" t="n">
@@ -5702,8 +5702,8 @@
   </sheetPr>
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5712,21 +5712,21 @@
     <col width="40.33203125" customWidth="1" style="61" min="2" max="2"/>
     <col width="23.6640625" customWidth="1" style="200" min="3" max="3"/>
     <col width="40.1640625" customWidth="1" style="200" min="4" max="4"/>
-    <col hidden="1" width="23.1640625" customWidth="1" style="200" min="5" max="5"/>
-    <col hidden="1" width="23.1640625" customWidth="1" style="202" min="6" max="6"/>
-    <col hidden="1" width="32.83203125" customWidth="1" style="202" min="7" max="7"/>
-    <col hidden="1" width="18.5" customWidth="1" style="202" min="8" max="8"/>
-    <col hidden="1" width="17.33203125" customWidth="1" style="204" min="9" max="9"/>
-    <col hidden="1" width="21.33203125" customWidth="1" style="204" min="10" max="10"/>
-    <col hidden="1" width="24.6640625" customWidth="1" style="204" min="11" max="14"/>
-    <col hidden="1" width="19.83203125" customWidth="1" style="205" min="15" max="15"/>
-    <col hidden="1" width="8.83203125" customWidth="1" style="194" min="16" max="16"/>
-    <col hidden="1" width="31.6640625" customWidth="1" style="194" min="17" max="17"/>
-    <col hidden="1" width="24.6640625" customWidth="1" style="194" min="18" max="18"/>
-    <col hidden="1" width="21.83203125" customWidth="1" style="192" min="19" max="19"/>
+    <col width="23.1640625" customWidth="1" style="200" min="5" max="5"/>
+    <col width="23.1640625" customWidth="1" style="202" min="6" max="6"/>
+    <col width="32.83203125" customWidth="1" style="202" min="7" max="7"/>
+    <col width="18.5" customWidth="1" style="202" min="8" max="8"/>
+    <col width="17.33203125" customWidth="1" style="204" min="9" max="9"/>
+    <col width="21.33203125" customWidth="1" style="204" min="10" max="10"/>
+    <col width="24.6640625" customWidth="1" style="204" min="11" max="14"/>
+    <col width="19.83203125" customWidth="1" style="205" min="15" max="15"/>
+    <col width="8.83203125" customWidth="1" style="194" min="16" max="16"/>
+    <col width="31.6640625" customWidth="1" style="194" min="17" max="17"/>
+    <col width="24.6640625" customWidth="1" style="194" min="18" max="18"/>
+    <col width="21.83203125" customWidth="1" style="192" min="19" max="19"/>
     <col width="26.83203125" customWidth="1" style="200" min="20" max="20"/>
-    <col width="8.83203125" customWidth="1" style="200" min="21" max="148"/>
-    <col width="8.83203125" customWidth="1" style="200" min="149" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="200" min="21" max="149"/>
+    <col width="8.83203125" customWidth="1" style="200" min="150" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="H3" s="116" t="n">
-        <v>99.98999999999999</v>
+        <v>84.11</v>
       </c>
       <c r="I3" s="164" t="inlineStr">
         <is>
@@ -5902,13 +5902,25 @@
           <t>Success</t>
         </is>
       </c>
-      <c r="K3" s="164" t="n"/>
-      <c r="L3" s="164" t="n"/>
-      <c r="M3" s="164" t="n"/>
-      <c r="N3" s="164" t="n"/>
+      <c r="K3" s="164" t="inlineStr"/>
+      <c r="L3" s="164" t="inlineStr">
+        <is>
+          <t>S0001</t>
+        </is>
+      </c>
+      <c r="M3" s="164" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="N3" s="164" t="inlineStr">
+        <is>
+          <t>ดำเนินการสำเร็จ</t>
+        </is>
+      </c>
       <c r="O3" s="165" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":null,"user_code":null,"user_message_en":null,"user_message_th":null},"data":{"score":99.99,"twin_status":false}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"score":84.11,"twin_status":false}}</t>
         </is>
       </c>
       <c r="P3" s="52" t="inlineStr">
